--- a/verif_results/exact/datos_verificacion_relu_1como2.xlsx
+++ b/verif_results/exact/datos_verificacion_relu_1como2.xlsx
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>0.8717300891876221</v>
+        <v>0.9054296016693115</v>
       </c>
       <c r="F1" t="n">
         <v>0</v>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="J1" t="n">
-        <v>0.8228745460510254</v>
+        <v>0.8221476078033447</v>
       </c>
       <c r="K1" t="n">
         <v>0</v>
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="O1" t="n">
-        <v>0.8253507614135742</v>
+        <v>0.8351969718933105</v>
       </c>
       <c r="P1" t="n">
         <v>0</v>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.154611825942993</v>
+        <v>1.150721788406372</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1.42997145652771</v>
+        <v>1.36809778213501</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1.173743724822998</v>
+        <v>1.170095443725586</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.029655933380127</v>
+        <v>0.9911370277404785</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.9624922275543213</v>
+        <v>0.9326851367950439</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>1.023071050643921</v>
+        <v>1.012471437454224</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.143154859542847</v>
+        <v>1.198984622955322</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1.212813377380371</v>
+        <v>1.225827932357788</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>1.333587408065796</v>
+        <v>1.355797052383423</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1293671131134033</v>
+        <v>0.1377899646759033</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.1293125152587891</v>
+        <v>0.1383347511291504</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>0.1292219161987305</v>
+        <v>0.1380712985992432</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.196710586547852</v>
+        <v>1.232128143310547</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1.17721152305603</v>
+        <v>1.228055715560913</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>1.172225952148438</v>
+        <v>1.196837902069092</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.471615552902222</v>
+        <v>1.428691864013672</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1.395605325698853</v>
+        <v>1.476237773895264</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>1.440805196762085</v>
+        <v>1.464370727539062</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9.22075629234314</v>
+        <v>11.47580862045288</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>9.172897815704346</v>
+        <v>9.205880880355835</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>10.48380398750305</v>
+        <v>9.219470262527466</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.656775951385498</v>
+        <v>1.700097799301147</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1.667156934738159</v>
+        <v>1.674798727035522</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>1.672414064407349</v>
+        <v>1.684880256652832</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4.904102087020874</v>
+        <v>4.982714414596558</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>6.08454155921936</v>
+        <v>4.453387022018433</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>4.32044529914856</v>
+        <v>4.385882139205933</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.904899597167969</v>
+        <v>3.950335025787354</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>3.92245626449585</v>
+        <v>3.91050124168396</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>3.919984102249146</v>
+        <v>3.934233665466309</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>17.94208788871765</v>
+        <v>28.62927889823914</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>20.0998101234436</v>
+        <v>26.22436165809631</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>19.72153544425964</v>
+        <v>38.00913238525391</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>

--- a/verif_results/exact/datos_verificacion_relu_1como2.xlsx
+++ b/verif_results/exact/datos_verificacion_relu_1como2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,59 +437,68 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>0.9054296016693115</v>
+        <v>0.9076712131500244</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G1" t="n">
+        <v>0</v>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J1" t="n">
-        <v>0.8221476078033447</v>
-      </c>
       <c r="K1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>0.8530385494232178</v>
+      </c>
+      <c r="L1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1" t="n">
+        <v>0</v>
       </c>
       <c r="N1" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O1" t="n">
-        <v>0.8351969718933105</v>
-      </c>
-      <c r="P1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
+      <c r="Q1" t="n">
+        <v>0.8222091197967529</v>
+      </c>
+      <c r="R1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -511,59 +520,68 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.150721788406372</v>
+        <v>1.186522006988525</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v>1.36809778213501</v>
-      </c>
       <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>1.446716547012329</v>
+      </c>
+      <c r="L2" t="n">
+        <v>21</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O2" t="n">
-        <v>1.170095443725586</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
+      <c r="Q2" t="n">
+        <v>1.171759843826294</v>
+      </c>
+      <c r="R2" t="n">
+        <v>13</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -585,59 +603,68 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.9911370277404785</v>
+        <v>0.9613702297210693</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v>0.9326851367950439</v>
-      </c>
       <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>1.093742370605469</v>
+      </c>
+      <c r="L3" t="n">
+        <v>11</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O3" t="n">
-        <v>1.012471437454224</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="Q3" t="n">
+        <v>0.9633545875549316</v>
+      </c>
+      <c r="R3" t="n">
+        <v>11</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -659,59 +686,68 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.198984622955322</v>
+        <v>1.184046030044556</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
+        <v>63</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v>1.225827932357788</v>
-      </c>
       <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>1.158192873001099</v>
+      </c>
+      <c r="L4" t="n">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O4" t="n">
-        <v>1.355797052383423</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="Q4" t="n">
+        <v>1.273174524307251</v>
+      </c>
+      <c r="R4" t="n">
+        <v>43</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -733,59 +769,68 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1377899646759033</v>
+        <v>0.1388654708862305</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v>0.1383347511291504</v>
-      </c>
       <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>0.1380436420440674</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O5" t="n">
-        <v>0.1380712985992432</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
+      <c r="Q5" t="n">
+        <v>0.138336181640625</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -807,59 +852,68 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.232128143310547</v>
+        <v>1.161818504333496</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v>1.228055715560913</v>
-      </c>
       <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>1.18630313873291</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O6" t="n">
-        <v>1.196837902069092</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
+      <c r="Q6" t="n">
+        <v>1.149706840515137</v>
+      </c>
+      <c r="R6" t="n">
+        <v>9</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -881,59 +935,68 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.428691864013672</v>
+        <v>1.412595987319946</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>83</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v>1.476237773895264</v>
-      </c>
       <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>1.380517721176147</v>
+      </c>
+      <c r="L7" t="n">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O7" t="n">
-        <v>1.464370727539062</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
+      <c r="Q7" t="n">
+        <v>1.818734169006348</v>
+      </c>
+      <c r="R7" t="n">
+        <v>83</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -955,59 +1018,68 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>11.47580862045288</v>
+        <v>10.14862465858459</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>3392</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v>9.205880880355835</v>
-      </c>
       <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>9.178433895111084</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3392</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O8" t="n">
-        <v>9.219470262527466</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
+      <c r="Q8" t="n">
+        <v>9.143401145935059</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3609</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -1029,59 +1101,68 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.700097799301147</v>
+        <v>1.65371298789978</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v>1.674798727035522</v>
-      </c>
       <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>1.706580638885498</v>
+      </c>
+      <c r="L9" t="n">
+        <v>49</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O9" t="n">
-        <v>1.684880256652832</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
+      <c r="Q9" t="n">
+        <v>1.687012434005737</v>
+      </c>
+      <c r="R9" t="n">
+        <v>53</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -1103,59 +1184,68 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4.982714414596558</v>
+        <v>5.043228149414062</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
+        <v>444</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v>4.453387022018433</v>
-      </c>
       <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>4.363986253738403</v>
+      </c>
+      <c r="L10" t="n">
+        <v>56</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O10" t="n">
-        <v>4.385882139205933</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
+      <c r="Q10" t="n">
+        <v>4.391676187515259</v>
+      </c>
+      <c r="R10" t="n">
+        <v>57</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -1177,59 +1267,68 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.950335025787354</v>
+        <v>4.047525405883789</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>136</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v>3.91050124168396</v>
-      </c>
       <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>3.92896556854248</v>
+      </c>
+      <c r="L11" t="n">
+        <v>151</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O11" t="n">
-        <v>3.934233665466309</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
+      <c r="Q11" t="n">
+        <v>3.96645975112915</v>
+      </c>
+      <c r="R11" t="n">
+        <v>136</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -1251,59 +1350,68 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.62927889823914</v>
+        <v>28.81331539154053</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
+        <v>10949</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v>26.22436165809631</v>
-      </c>
       <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>26.28417110443115</v>
+      </c>
+      <c r="L12" t="n">
+        <v>10258</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O12" t="n">
-        <v>38.00913238525391</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
+      <c r="Q12" t="n">
+        <v>37.26315832138062</v>
+      </c>
+      <c r="R12" t="n">
+        <v>17621</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>

--- a/verif_results/exact/datos_verificacion_relu_1como2.xlsx
+++ b/verif_results/exact/datos_verificacion_relu_1como2.xlsx
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>0.9076712131500244</v>
+        <v>0.7904462814331055</v>
       </c>
       <c r="F1" t="n">
         <v>1</v>
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="K1" t="n">
-        <v>0.8530385494232178</v>
+        <v>0.7917239665985107</v>
       </c>
       <c r="L1" t="n">
         <v>1</v>
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="Q1" t="n">
-        <v>0.8222091197967529</v>
+        <v>0.8476090431213379</v>
       </c>
       <c r="R1" t="n">
         <v>1</v>
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.186522006988525</v>
+        <v>1.352956533432007</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>1.446716547012329</v>
+        <v>1.430623292922974</v>
       </c>
       <c r="L2" t="n">
         <v>21</v>
@@ -568,10 +568,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.171759843826294</v>
+        <v>1.356561422348022</v>
       </c>
       <c r="R2" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.9613702297210693</v>
+        <v>0.9296844005584717</v>
       </c>
       <c r="F3" t="n">
         <v>11</v>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>1.093742370605469</v>
+        <v>0.9446280002593994</v>
       </c>
       <c r="L3" t="n">
         <v>11</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.9633545875549316</v>
+        <v>0.9186866283416748</v>
       </c>
       <c r="R3" t="n">
         <v>11</v>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.184046030044556</v>
+        <v>1.370426177978516</v>
       </c>
       <c r="F4" t="n">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>1.158192873001099</v>
+        <v>1.297852754592896</v>
       </c>
       <c r="L4" t="n">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>1.273174524307251</v>
+        <v>1.346252679824829</v>
       </c>
       <c r="R4" t="n">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1388654708862305</v>
+        <v>0.1375904083251953</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.1380436420440674</v>
+        <v>0.1371829509735107</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>0.138336181640625</v>
+        <v>0.1374633312225342</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.161818504333496</v>
+        <v>1.134833097457886</v>
       </c>
       <c r="F6" t="n">
         <v>9</v>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1.18630313873291</v>
+        <v>1.124298095703125</v>
       </c>
       <c r="L6" t="n">
         <v>9</v>
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>1.149706840515137</v>
+        <v>1.131874799728394</v>
       </c>
       <c r="R6" t="n">
         <v>9</v>
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.412595987319946</v>
+        <v>1.492576837539673</v>
       </c>
       <c r="F7" t="n">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1.380517721176147</v>
+        <v>1.470238447189331</v>
       </c>
       <c r="L7" t="n">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>1.818734169006348</v>
+        <v>1.431900501251221</v>
       </c>
       <c r="R7" t="n">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10.14862465858459</v>
+        <v>5.345186948776245</v>
       </c>
       <c r="F8" t="n">
-        <v>3392</v>
+        <v>1533</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1042,10 +1042,10 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>9.178433895111084</v>
+        <v>5.31134819984436</v>
       </c>
       <c r="L8" t="n">
-        <v>3392</v>
+        <v>1533</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>9.143401145935059</v>
+        <v>5.360919237136841</v>
       </c>
       <c r="R8" t="n">
-        <v>3609</v>
+        <v>1533</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.65371298789978</v>
+        <v>1.711831092834473</v>
       </c>
       <c r="F9" t="n">
         <v>49</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1.706580638885498</v>
+        <v>1.756338596343994</v>
       </c>
       <c r="L9" t="n">
         <v>49</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>1.687012434005737</v>
+        <v>1.779939889907837</v>
       </c>
       <c r="R9" t="n">
         <v>53</v>
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5.043228149414062</v>
+        <v>5.062049388885498</v>
       </c>
       <c r="F10" t="n">
         <v>444</v>
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>4.363986253738403</v>
+        <v>4.428894281387329</v>
       </c>
       <c r="L10" t="n">
         <v>56</v>
@@ -1232,10 +1232,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>4.391676187515259</v>
+        <v>4.467696189880371</v>
       </c>
       <c r="R10" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4.047525405883789</v>
+        <v>3.879953145980835</v>
       </c>
       <c r="F11" t="n">
         <v>136</v>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>3.92896556854248</v>
+        <v>3.924932718276978</v>
       </c>
       <c r="L11" t="n">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>3.96645975112915</v>
+        <v>3.90707540512085</v>
       </c>
       <c r="R11" t="n">
         <v>136</v>
@@ -1350,10 +1350,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.81331539154053</v>
+        <v>17.19711804389954</v>
       </c>
       <c r="F12" t="n">
-        <v>10949</v>
+        <v>6681</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1374,10 +1374,10 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>26.28417110443115</v>
+        <v>21.01547503471375</v>
       </c>
       <c r="L12" t="n">
-        <v>10258</v>
+        <v>6811</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1398,10 +1398,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>37.26315832138062</v>
+        <v>25.97321271896362</v>
       </c>
       <c r="R12" t="n">
-        <v>17621</v>
+        <v>10424</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
